--- a/pcb/vim60/BOM.xlsx
+++ b/pcb/vim60/BOM.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
-  <si>
-    <t>XXXX 项目物料BOM清单</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+  <si>
+    <t>VIM60 项目物料BOM清单</t>
   </si>
   <si>
     <t>序号</t>
@@ -37,165 +37,199 @@
     <t>商品编号</t>
   </si>
   <si>
-    <t>示例：</t>
-  </si>
-  <si>
-    <t>电源芯片</t>
-  </si>
-  <si>
-    <t>AMS1117-3.3</t>
-  </si>
-  <si>
-    <t>SOT-223</t>
-  </si>
-  <si>
-    <t>AMS</t>
-  </si>
-  <si>
-    <t>C6186</t>
-  </si>
-  <si>
-    <t>贴片电阻</t>
-  </si>
-  <si>
-    <t>10KΩ(1002) ±1%</t>
-  </si>
-  <si>
-    <t>0402</t>
-  </si>
-  <si>
-    <t>YAGEO</t>
-  </si>
-  <si>
-    <t>C93943</t>
-  </si>
-  <si>
-    <t>4.7KΩ(4701) ±1%</t>
-  </si>
-  <si>
-    <t>0603</t>
-  </si>
-  <si>
-    <t>uniohm</t>
-  </si>
-  <si>
-    <t>C23162</t>
+    <t>NPN三极管</t>
+  </si>
+  <si>
+    <t>2SCR544RMGTL</t>
+  </si>
+  <si>
+    <t>SC-96</t>
+  </si>
+  <si>
+    <t>ROHM</t>
+  </si>
+  <si>
+    <t>C308654</t>
+  </si>
+  <si>
+    <t>贴片电容</t>
+  </si>
+  <si>
+    <t>22pf(220)±5% 50V</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>SAMSUNG</t>
+  </si>
+  <si>
+    <t>C1804</t>
+  </si>
+  <si>
+    <t>1uf(105)±10% 25V</t>
+  </si>
+  <si>
+    <t>C116352</t>
+  </si>
+  <si>
+    <t>100nf(104)±10% 50V</t>
+  </si>
+  <si>
+    <t>C1711</t>
+  </si>
+  <si>
+    <t>二极管</t>
+  </si>
+  <si>
+    <t>CD4148WSP</t>
+  </si>
+  <si>
+    <t>LIZ</t>
+  </si>
+  <si>
+    <t>C109001</t>
+  </si>
+  <si>
+    <t>LED</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="宋体"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue Medium"/>
       </rPr>
-      <t>请</t>
+      <t>WS2812</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color indexed="12"/>
-        <rFont val="宋体"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue Medium"/>
       </rPr>
-      <t xml:space="preserve">删除 第3~7行 </t>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <t>SMD,5x5mm</t>
+  </si>
+  <si>
+    <t>WORLDSEMI</t>
+  </si>
+  <si>
+    <t>C114587</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>ATMEGA32U4-AU</t>
+  </si>
+  <si>
+    <t>QFP-44_10x10x08P</t>
+  </si>
+  <si>
+    <t>MICROCHIP</t>
+  </si>
+  <si>
+    <t>C44854</t>
+  </si>
+  <si>
+    <t>USB连接器</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t>67503-</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="宋体"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue Medium"/>
       </rPr>
-      <t xml:space="preserve">示例部分内容！ </t>
+      <t>1020</t>
     </r>
   </si>
   <si>
-    <t>NPN三极管</t>
-  </si>
-  <si>
-    <t>2SC5866</t>
-  </si>
-  <si>
-    <t>SOT-346T</t>
-  </si>
-  <si>
-    <t>ROHM</t>
-  </si>
-  <si>
-    <t>C126305</t>
-  </si>
-  <si>
-    <t>贴片电容</t>
-  </si>
-  <si>
-    <t>22pf</t>
-  </si>
-  <si>
-    <t>0805C</t>
-  </si>
-  <si>
-    <t>1u</t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
-    <t>二极管</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>0805D</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>WS2812B</t>
-  </si>
-  <si>
-    <t>IC</t>
-  </si>
-  <si>
-    <t>ATMEGA32U4</t>
-  </si>
-  <si>
-    <t>TQFP44</t>
-  </si>
-  <si>
-    <t>USB连接器</t>
-  </si>
-  <si>
-    <t>0805R</t>
-  </si>
-  <si>
-    <t>250ohm</t>
-  </si>
-  <si>
-    <t>22ohm</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>300ohm</t>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>MOLEX</t>
+  </si>
+  <si>
+    <t>C136451</t>
+  </si>
+  <si>
+    <t>贴片电阻</t>
+  </si>
+  <si>
+    <t>47Ω(470)±5%</t>
+  </si>
+  <si>
+    <t>KOA</t>
+  </si>
+  <si>
+    <t>C159917</t>
+  </si>
+  <si>
+    <t>47KΩ(473)±5%</t>
+  </si>
+  <si>
+    <t>C159920</t>
+  </si>
+  <si>
+    <t>100(101)±5%</t>
+  </si>
+  <si>
+    <t>C159910</t>
+  </si>
+  <si>
+    <t>22Ω(220)±5%</t>
+  </si>
+  <si>
+    <t>C159913</t>
+  </si>
+  <si>
+    <t>10k(103)±5%</t>
+  </si>
+  <si>
+    <t>C159912</t>
   </si>
   <si>
     <t>轻触开关</t>
   </si>
   <si>
-    <t>KSEM31GLFS</t>
-  </si>
-  <si>
-    <t>DTSM-6</t>
+    <t>KSC321GLFS</t>
+  </si>
+  <si>
+    <t>6.2x6.2</t>
+  </si>
+  <si>
+    <t>C&amp;K</t>
+  </si>
+  <si>
+    <t>C225074</t>
   </si>
   <si>
     <t>晶振</t>
   </si>
   <si>
-    <t>ASX4</t>
-  </si>
-  <si>
-    <t>4-SMD</t>
+    <t>CXAN-016000-3F09D41</t>
+  </si>
+  <si>
+    <t>SMD-3225</t>
+  </si>
+  <si>
+    <t>AKER</t>
+  </si>
+  <si>
+    <t>C462344</t>
   </si>
   <si>
     <t>请将需要匹配的BOM放在第一个工作表即sheet1</t>
@@ -208,7 +242,12 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8">
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -222,46 +261,26 @@
     <font>
       <sz val="14"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="11"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="14"/>
-      <name val="微软雅黑"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="14"/>
+      <color indexed="13"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica Neue Medium"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="14"/>
+      <name val="宋体"/>
     </font>
     <font>
       <sz val="14"/>
-      <color indexed="12"/>
+      <color indexed="13"/>
       <name val="微软雅黑"/>
     </font>
   </fonts>
@@ -279,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -334,8 +353,8 @@
       <top style="medium">
         <color indexed="11"/>
       </top>
-      <bottom style="medium">
-        <color indexed="11"/>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -344,43 +363,43 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
-      <top style="medium">
-        <color indexed="11"/>
+      <top style="thin">
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
-      <top style="medium">
-        <color indexed="11"/>
+      <top style="thin">
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="medium">
         <color indexed="11"/>
       </right>
-      <top style="medium">
-        <color indexed="11"/>
+      <top style="thin">
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -389,55 +408,10 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="medium">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="medium">
         <color indexed="11"/>
@@ -446,13 +420,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="medium">
         <color indexed="11"/>
@@ -461,13 +435,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="medium">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="medium">
         <color indexed="11"/>
@@ -552,138 +526,96 @@
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,8 +637,8 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff7f7f7f"/>
+      <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="ff444444"/>
     </indexedColors>
   </colors>
@@ -858,9 +790,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -940,7 +872,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -968,10 +900,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1227,9 +1159,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1517,7 +1449,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1545,10 +1477,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1802,19 +1734,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6" defaultRowHeight="12.3" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.17188" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="4" width="37.8516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42188" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="45.4219" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6016" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1">
@@ -1852,464 +1784,435 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="C3" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s" s="10">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="E6" s="9">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="E9" s="9">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="F9" t="s" s="8">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="8">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s" s="8">
+        <v>38</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s" s="8">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="B11" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s" s="8">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="B12" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s" s="8">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s" s="8">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="E13" s="9">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s" s="10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="7">
         <v>11</v>
       </c>
-      <c r="E4" s="13">
+      <c r="B14" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s" s="8">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s" s="8">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s" s="8">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="8">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s" s="8">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s" s="8">
+        <v>55</v>
+      </c>
+      <c r="E16" s="9">
         <v>1</v>
       </c>
-      <c r="F4" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s" s="14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="10">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="12">
+      <c r="F16" t="s" s="8">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="12">
-        <v>16</v>
-      </c>
-      <c r="E5" s="13">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s" s="14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="10">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="E6" s="13">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s" s="14">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" t="s" s="15">
-        <v>23</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="18">
+      <c r="B17" t="s" s="8">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s" s="8">
+        <v>60</v>
+      </c>
+      <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="19">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s" s="20">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s" s="19">
-        <v>26</v>
-      </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s" s="19">
-        <v>27</v>
-      </c>
-      <c r="G8" t="s" s="22">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="18">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s" s="19">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s" s="19">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s" s="19">
-        <v>31</v>
-      </c>
-      <c r="E9" s="21">
-        <v>2</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="18">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s" s="19">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s" s="19">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="19">
-        <v>31</v>
-      </c>
-      <c r="E10" s="21">
-        <v>2</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="18">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s" s="19">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s" s="19">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s" s="19">
-        <v>31</v>
-      </c>
-      <c r="E11" s="21">
-        <v>24</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="18">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s" s="19">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s" s="19">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s" s="19">
-        <v>36</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="F17" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s" s="10">
         <v>62</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="18">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s" s="19">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s" s="19">
-        <v>38</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="21">
-        <v>20</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="18">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s" s="19">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s" s="19">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s" s="19">
-        <v>41</v>
-      </c>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="18">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s" s="19">
-        <v>42</v>
-      </c>
-      <c r="C15" s="21">
-        <v>67503</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="18">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" t="s" s="19">
-        <v>43</v>
-      </c>
-      <c r="E16" s="21">
-        <v>2</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="18">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s" s="19">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s" s="19">
-        <v>43</v>
-      </c>
-      <c r="E17" s="21">
-        <v>62</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="25"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="18">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s" s="19">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s" s="19">
-        <v>43</v>
-      </c>
-      <c r="E18" s="21">
-        <v>2</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="25"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="18">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s" s="19">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s" s="19">
-        <v>43</v>
-      </c>
-      <c r="E19" s="21">
-        <v>2</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="25"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="18">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s" s="19">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s" s="19">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s" s="19">
-        <v>43</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="25"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="18">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s" s="19">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s" s="19">
-        <v>49</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s" s="26">
-        <v>50</v>
-      </c>
-      <c r="G21" s="25"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="18">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s" s="19">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s" s="19">
-        <v>52</v>
-      </c>
-      <c r="D22" t="s" s="19">
-        <v>53</v>
-      </c>
-      <c r="E22" s="21">
-        <v>1</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="25"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="25"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="25"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="27"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="27"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="27"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="31"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" ht="20.25" customHeight="1">
-      <c r="A31" t="s" s="37">
-        <v>54</v>
-      </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="26" ht="20.25" customHeight="1">
+      <c r="A26" t="s" s="24">
+        <v>63</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A7:G7"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.708661" right="0.708661" top="0.748031" bottom="0.748031" header="0.314961" footer="0.314961"/>
